--- a/outputs-HGR-r202/f__Bacteroidaceae.xlsx
+++ b/outputs-HGR-r202/f__Bacteroidaceae.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -9,7 +10,7 @@
     <sheet name="f__Bacteroidaceae_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,10 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -33,21 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,19 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,1656 +435,1930 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1-g__43-108</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2-g__Bacteroides</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3-g__CAG-462</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4-g__CAG-617</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5-g__F0040</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6-g__Paraprevotella</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7-g__Phocaeicola</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8-g__Prevotella</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9-g__Prevotellamassilia</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10-g__UBA4372</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>11-g__UBA6382</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>12-g__UBA6398</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT103.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.845402408736518e-06</v>
+        <v>0.0001162973784090449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005305076835305684</v>
+        <v>0.001633635938686753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003694733112986525</v>
+        <v>0.00356090443176208</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00114380152847687</v>
+        <v>0.003736794834545185</v>
       </c>
       <c r="F2" t="n">
-        <v>2.223882345022802e-14</v>
+        <v>2.220021291816724e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002126801954368354</v>
+        <v>3.30160179092143e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001768939457102973</v>
+        <v>0.0001701770511174627</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9840582427502713</v>
+        <v>0.9862486392427499</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007109195226633255</v>
+        <v>0.004489261651551476</v>
       </c>
       <c r="K2" t="n">
-        <v>2.460231789095522e-05</v>
+        <v>1.122138431186738e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.140064234758146e-13</v>
+        <v>3.6308854035278e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>2.142974938601723e-06</v>
-      </c>
-      <c r="N2" t="inlineStr">
+        <v>1.576008075766862e-08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9862486392427499</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT12797.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.132028185360334e-05</v>
+        <v>1.131376413517272e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07605942589163539</v>
+        <v>0.1075693480696874</v>
       </c>
       <c r="D3" t="n">
-        <v>3.778630366316643e-05</v>
+        <v>3.219593634185278e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001003238369839273</v>
+        <v>0.0002740285603250668</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2191561313122e-14</v>
+        <v>2.219402462724646e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001439656697897137</v>
+        <v>0.004878963513440423</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001668079521624345</v>
+        <v>0.0004415573416244013</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001387621571469213</v>
+        <v>0.001604043626199035</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9182835193311256</v>
+        <v>0.8851006632731458</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002143989286205245</v>
+        <v>5.382596644051e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>9.759507873530495e-08</v>
+        <v>8.105717061560109e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001190546535278189</v>
-      </c>
-      <c r="N3" t="inlineStr">
+        <v>1.446147818937033e-06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8851006632731458</v>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT14027.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.685271512289762e-05</v>
+        <v>1.294304980188058e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001520162685426405</v>
+        <v>0.003039884819111111</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003062304591836717</v>
+        <v>0.0001724506579486819</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001560201488428279</v>
+        <v>0.001773280771842774</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220265642118438e-14</v>
+        <v>2.220229998853011e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>1.303396681735989e-05</v>
+        <v>0.000115830920280174</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02249328502644134</v>
+        <v>0.006801948668147238</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9696755313772556</v>
+        <v>0.9867069214440659</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003325242032891192</v>
+        <v>0.001356513971713884</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003764990700381666</v>
+        <v>5.361476254252036e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>1.777354888886691e-07</v>
+        <v>1.485701325961466e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007127834428839776</v>
-      </c>
-      <c r="N4" t="inlineStr">
+        <v>7.207552498632642e-09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9867069214440659</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT20293.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.365257251956775e-05</v>
+        <v>1.262886765486719e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007316988965411684</v>
+        <v>0.000289162668454693</v>
       </c>
       <c r="D5" t="n">
-        <v>2.676835877221909e-06</v>
+        <v>0.0001239373220846447</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0005054650881371005</v>
+        <v>0.003487716617577228</v>
       </c>
       <c r="F5" t="n">
-        <v>2.219536490129844e-14</v>
+        <v>2.220421683475816e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>4.052681884364706e-06</v>
+        <v>4.357781386232681e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05220390259000965</v>
+        <v>0.009651508836968054</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9436045049129942</v>
+        <v>0.9811978423559351</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00284379434382786</v>
+        <v>0.005247430333384553</v>
       </c>
       <c r="K5" t="n">
-        <v>2.844094052473593e-09</v>
+        <v>2.817975453952269e-11</v>
       </c>
       <c r="L5" t="n">
-        <v>7.922209922277326e-14</v>
+        <v>2.114244422177051e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>8.024923401346876e-05</v>
-      </c>
-      <c r="N5" t="inlineStr">
+        <v>7.010582451477994e-07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9811978423559351</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT31343.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.282691218758176e-06</v>
+        <v>6.587074816167226e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00017247472107254</v>
+        <v>1.301590189102514e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>5.351569503287669e-06</v>
+        <v>8.656751757284355e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003551631307259711</v>
+        <v>0.002548463529663295</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220243996914567e-14</v>
+        <v>2.220347654644594e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>5.777647853628748e-06</v>
+        <v>1.390767731165572e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009937117902550249</v>
+        <v>0.005293381655223578</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9861412783046934</v>
+        <v>0.9888824812464083</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003354452717617648</v>
+        <v>0.003175099782867373</v>
       </c>
       <c r="K6" t="n">
-        <v>1.079263259683048e-10</v>
+        <v>2.977911476282097e-12</v>
       </c>
       <c r="L6" t="n">
-        <v>2.220243996914567e-14</v>
+        <v>8.173933107715388e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>2.3101206793764e-05</v>
-      </c>
-      <c r="N6" t="inlineStr">
+        <v>1.917617253585177e-07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9888824812464083</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT32351.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.642083357515269e-05</v>
+        <v>1.252168423088675e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007385540861214211</v>
+        <v>0.008505776621140873</v>
       </c>
       <c r="D7" t="n">
-        <v>4.093200108773976e-05</v>
+        <v>0.000572655252047019</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003551644410900354</v>
+        <v>0.003627765871117632</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220325090418384e-14</v>
+        <v>2.647792716358135e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.641393577134814e-06</v>
+        <v>5.075635920980901e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003133959817641824</v>
+        <v>0.005879551866629722</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8842974944502244</v>
+        <v>0.894476369934232</v>
       </c>
       <c r="J7" t="n">
-        <v>0.104659723424555</v>
+        <v>0.08683490147476278</v>
       </c>
       <c r="K7" t="n">
-        <v>1.86804999602306e-05</v>
+        <v>1.302795642829068e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>1.113695502507077e-07</v>
+        <v>3.954336358475584e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>5.933090750190163e-05</v>
-      </c>
-      <c r="N7" t="inlineStr">
+        <v>2.729345367429986e-08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.894476369934232</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT37917.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.44260464267284e-05</v>
+        <v>3.6726410941554e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004087086124324329</v>
+        <v>0.003356859036578049</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003170306149597081</v>
+        <v>0.0008452346376578534</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003117827887560647</v>
+        <v>0.002817424700085144</v>
       </c>
       <c r="F8" t="n">
-        <v>2.403319344600882e-14</v>
+        <v>2.220206429512479e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>7.670535487395481e-05</v>
+        <v>0.0002312837503193151</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01109162756124115</v>
+        <v>0.009894223686535947</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9701046527275192</v>
+        <v>0.9810200242129171</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005781018451301304</v>
+        <v>0.0005654390734094362</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002186395294649237</v>
+        <v>1.352976470305247e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002055751682339045</v>
+        <v>0.001264343090200271</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002082134999432863</v>
-      </c>
-      <c r="N8" t="inlineStr">
+        <v>1.421947102313271e-07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9810200242129171</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT41097.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.862091430715899e-05</v>
+        <v>1.141167224245718e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08836781278860924</v>
+        <v>0.05748600513362512</v>
       </c>
       <c r="D9" t="n">
-        <v>2.876540310709118e-05</v>
+        <v>1.875534190602322e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000658836150263499</v>
+        <v>0.0002417891896095595</v>
       </c>
       <c r="F9" t="n">
-        <v>2.219734140532628e-14</v>
+        <v>2.220286073759674e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002728332060962758</v>
+        <v>0.007925759239715906</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001187138725689126</v>
+        <v>0.000901732320838442</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002462230868724851</v>
+        <v>0.002749915223321921</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9013694230557279</v>
+        <v>0.9305041597080002</v>
       </c>
       <c r="K9" t="n">
-        <v>7.284295249071008e-05</v>
+        <v>1.230157303091447e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>2.854152612162577e-07</v>
+        <v>0.0001328473306556243</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005531210519700895</v>
-      </c>
-      <c r="N9" t="inlineStr">
+        <v>2.639468275933385e-05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9305041597080002</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT42852.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.310281035479577e-06</v>
+        <v>3.3645162559338e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004423542374106487</v>
+        <v>0.01016461560727296</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001112137304409382</v>
+        <v>0.0005385618005539062</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0007029655106636891</v>
+        <v>0.005182071917320012</v>
       </c>
       <c r="F10" t="n">
-        <v>2.221456592253846e-14</v>
+        <v>2.221171790241105e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>7.676777922747439e-05</v>
+        <v>0.0008913873244689408</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001225721568888677</v>
+        <v>0.001134409921696799</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3286499591962301</v>
+        <v>0.3314782598754301</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6647424604939512</v>
+        <v>0.6505339713114645</v>
       </c>
       <c r="K10" t="n">
-        <v>2.655660096238199e-05</v>
+        <v>4.945668367544756e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>9.730035551079945e-09</v>
+        <v>6.807918102276349e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>3.749273443578745e-05</v>
-      </c>
-      <c r="N10" t="inlineStr">
+        <v>3.328761242532195e-07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6505339713114645</v>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT42865.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0003734309867378385</v>
+        <v>0.0001352734140197063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03173052452460993</v>
+        <v>0.06716343577338613</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001728929157478691</v>
+        <v>0.001044469909775973</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01068062680589952</v>
+        <v>0.02438114306863947</v>
       </c>
       <c r="F11" t="n">
-        <v>2.523897106037611e-14</v>
+        <v>3.996701308607744e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>4.505427478516688e-05</v>
+        <v>0.001273790408845901</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9007965690862766</v>
+        <v>0.7913420285678248</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04148454353656141</v>
+        <v>0.05143118961337586</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01416610656335939</v>
+        <v>0.06322671641619264</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002436215925595855</v>
+        <v>6.03401473079246e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>5.548294248218388e-09</v>
+        <v>1.312037783828667e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0003066241651431287</v>
-      </c>
-      <c r="N11" t="inlineStr">
+        <v>3.738864275834104e-08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7913420285678248</v>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>g__Phocaeicola</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>g__Phocaeicola</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.497456624311156e-05</v>
+        <v>1.435832110328504e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01133227951372919</v>
+        <v>0.005267058457162109</v>
       </c>
       <c r="D12" t="n">
-        <v>5.10953272056113e-05</v>
+        <v>0.0001505398426181284</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001055346574347617</v>
+        <v>0.003663798992446248</v>
       </c>
       <c r="F12" t="n">
-        <v>2.220142059073252e-14</v>
+        <v>2.354777661443844e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>6.213357056762304e-06</v>
+        <v>0.0001112131836261935</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02375701455805769</v>
+        <v>0.01920456198413461</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9072837327369183</v>
+        <v>0.9454964300769035</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05617596725738785</v>
+        <v>0.02606169237602802</v>
       </c>
       <c r="K12" t="n">
-        <v>6.596099828733372e-05</v>
+        <v>2.205282428686955e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>2.557761994361627e-07</v>
+        <v>3.011963311862532e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0002171593345448463</v>
-      </c>
-      <c r="N12" t="inlineStr">
+        <v>6.604592774898885e-09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9454964300769035</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.971548055099876e-06</v>
+        <v>1.359317855359442e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02907260643788761</v>
+        <v>0.03023895229159012</v>
       </c>
       <c r="D13" t="n">
-        <v>3.01471584032909e-05</v>
+        <v>0.0001627879167221395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0007158176024739751</v>
+        <v>0.0003927772574086039</v>
       </c>
       <c r="F13" t="n">
-        <v>2.220721320310154e-14</v>
+        <v>2.222806333365024e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001983555236622824</v>
+        <v>0.03853029144287107</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004250697263877386</v>
+        <v>0.0003444848275976361</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008545562311691743</v>
+        <v>0.01058536655990138</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9549920933047191</v>
+        <v>0.9194005791095993</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003360081850092998</v>
+        <v>1.208094590421405e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.203561370457718e-07</v>
+        <v>0.0003309756038875655</v>
       </c>
       <c r="M13" t="n">
-        <v>7.04205951003566e-05</v>
-      </c>
-      <c r="N13" t="inlineStr">
+        <v>3.447266403596272e-07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9194005791095993</v>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT4651.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.701030512179873e-06</v>
+        <v>1.856220461780217e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04196413379620418</v>
+        <v>0.01813675879382369</v>
       </c>
       <c r="D14" t="n">
-        <v>1.501857759235495e-05</v>
+        <v>1.354027200227611e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005200010854989983</v>
+        <v>0.0002024708839535436</v>
       </c>
       <c r="F14" t="n">
-        <v>2.221420147082753e-14</v>
+        <v>2.221604449189493e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001003948839681034</v>
+        <v>0.01641170343735749</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0003575976434519317</v>
+        <v>0.0003887278827789204</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02019269690705332</v>
+        <v>0.01515573811521905</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9356896404749014</v>
+        <v>0.9481224927911791</v>
       </c>
       <c r="K14" t="n">
-        <v>1.645547246922594e-05</v>
+        <v>9.872067963008027e-08</v>
       </c>
       <c r="L14" t="n">
-        <v>2.13581060063838e-06</v>
+        <v>0.001562741346769232</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0002346703620125673</v>
-      </c>
-      <c r="N14" t="inlineStr">
+        <v>3.87153575304357e-06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.9481224927911791</v>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0004726591446945393</v>
+        <v>6.252202888538097e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03747391276074696</v>
+        <v>0.01908323600055182</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000223907279059814</v>
+        <v>0.00041184752203457</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002785698754717735</v>
+        <v>0.006831387303597736</v>
       </c>
       <c r="F15" t="n">
-        <v>3.070687980482675e-14</v>
+        <v>4.342931710183234e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>3.027277315375463e-05</v>
+        <v>0.0004110536804354939</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01093271032445935</v>
+        <v>0.04676471608538794</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7863240186197964</v>
+        <v>0.8104337630783865</v>
       </c>
       <c r="J15" t="n">
-        <v>0.161273889545766</v>
+        <v>0.1145364774889336</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001631094169822359</v>
+        <v>4.060029438758119e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>3.550453595531831e-05</v>
+        <v>0.001464478363293329</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0002843168446372326</v>
-      </c>
-      <c r="N15" t="inlineStr">
+        <v>1.124455061476629e-07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8104337630783865</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.163799957169227e-06</v>
+        <v>8.621526590031538e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001973906079302515</v>
+        <v>0.000206945295613484</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0002905691940941136</v>
+        <v>0.002993390184936287</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001925619912820094</v>
+        <v>0.006035976317405532</v>
       </c>
       <c r="F16" t="n">
-        <v>2.220254713948334e-14</v>
+        <v>2.220392958963552e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>5.25257668640754e-05</v>
+        <v>5.526100550249458e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009663390630165802</v>
+        <v>0.0002212616471719318</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9750439044985324</v>
+        <v>0.9794584196674994</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01103714775880411</v>
+        <v>0.01099204856726608</v>
       </c>
       <c r="K16" t="n">
-        <v>7.386007174674969e-07</v>
+        <v>1.939807345343005e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>2.220254713948334e-14</v>
+        <v>3.266963938597065e-09</v>
       </c>
       <c r="M16" t="n">
-        <v>3.033758697791838e-06</v>
-      </c>
-      <c r="N16" t="inlineStr">
+        <v>1.970593615269037e-08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.9794584196674994</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.633148720782567e-06</v>
+        <v>6.064402655991417e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001505754391390551</v>
+        <v>0.0004845194563180101</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0005171245500782139</v>
+        <v>0.002688270666512296</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004197626483067788</v>
+        <v>0.01179158880125739</v>
       </c>
       <c r="F17" t="n">
-        <v>3.216922544631898e-14</v>
+        <v>2.546565773101659e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>6.128006952608661e-05</v>
+        <v>7.46234106587758e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03567632027890438</v>
+        <v>0.001378663422666677</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9310415305869136</v>
+        <v>0.9572254388904839</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0269818403305723</v>
+        <v>0.02636227033229004</v>
       </c>
       <c r="K17" t="n">
-        <v>5.211307738851496e-06</v>
+        <v>1.084356809363381e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>3.310565156303244e-14</v>
+        <v>1.281729750797304e-08</v>
       </c>
       <c r="M17" t="n">
-        <v>5.678853022177498e-06</v>
-      </c>
-      <c r="N17" t="inlineStr">
+        <v>4.488871331440491e-08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9572254388904839</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.711516646424592e-05</v>
+        <v>1.102478424161844e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001086386356150223</v>
+        <v>4.103761785442095e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>1.966419824377497e-07</v>
+        <v>9.512477179272116e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0008704013437300227</v>
+        <v>0.002576262522802279</v>
       </c>
       <c r="F18" t="n">
-        <v>2.220172310506418e-14</v>
+        <v>2.220325259940694e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>1.013539049992192e-06</v>
+        <v>1.952417416022087e-08</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01550802764785777</v>
+        <v>0.007369406219362652</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9794754133359307</v>
+        <v>0.9874260443380688</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001027328827551888</v>
+        <v>0.002554166101092715</v>
       </c>
       <c r="K18" t="n">
-        <v>1.358645368862531e-11</v>
+        <v>4.625279759108653e-13</v>
       </c>
       <c r="L18" t="n">
-        <v>2.220172310506418e-14</v>
+        <v>1.636224994484327e-09</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002991864848187038</v>
-      </c>
-      <c r="N18" t="inlineStr">
+        <v>2.244708433183181e-05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.9874260443380688</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.057702930885123e-05</v>
+        <v>3.268300177226258e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001481737033764123</v>
+        <v>0.002012619853044795</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0007833816548802396</v>
+        <v>0.0004581471656538166</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002217169240781262</v>
+        <v>0.00256083760428201</v>
       </c>
       <c r="F19" t="n">
-        <v>2.234032478675436e-14</v>
+        <v>2.220076772325638e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>2.579379402170099e-05</v>
+        <v>0.0002614966860262961</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02243434275147222</v>
+        <v>0.00819964901206054</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9659324191820995</v>
+        <v>0.9818741300851606</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006221689004651983</v>
+        <v>0.003565879350225886</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002069218843297949</v>
+        <v>1.173511295780083e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>4.968931584843008e-05</v>
+        <v>0.001062707512898242</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0006162791088196784</v>
-      </c>
-      <c r="N19" t="inlineStr">
+        <v>9.091915269490656e-08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.9818741300851606</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.277608641775714e-06</v>
+        <v>2.9778018254697e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002938044461956473</v>
+        <v>0.0009735815449070018</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0004977885284038134</v>
+        <v>0.007034017738867774</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000635655107457816</v>
+        <v>0.003605384770294784</v>
       </c>
       <c r="F20" t="n">
-        <v>2.220295661363758e-14</v>
+        <v>2.220413830777369e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001028112263705268</v>
+        <v>0.0001926265407659057</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002195881434934109</v>
+        <v>0.0008975282558495308</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9780234815326456</v>
+        <v>0.9623595091813038</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01465036789128425</v>
+        <v>0.02489923924698008</v>
       </c>
       <c r="K20" t="n">
-        <v>2.352163555376231e-05</v>
+        <v>1.304852373013913e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>1.577740139506042e-10</v>
+        <v>7.020955457527635e-06</v>
       </c>
       <c r="M20" t="n">
-        <v>1.869377620759805e-06</v>
-      </c>
-      <c r="N20" t="inlineStr">
+        <v>8.894923925954815e-09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.9623595091813038</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.76871160016326e-06</v>
+        <v>3.551838639955212e-07</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001185100440746683</v>
+        <v>2.094959274305655e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>1.535455378245056e-07</v>
+        <v>1.095978703948174e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0001157114489279789</v>
+        <v>0.001008367279517734</v>
       </c>
       <c r="F21" t="n">
-        <v>2.219894098464154e-14</v>
+        <v>2.220208317343121e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>1.414172400818305e-06</v>
+        <v>5.02482048546239e-08</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01880194384859064</v>
+        <v>0.01334137970294535</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9799888437671158</v>
+        <v>0.982209712491005</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0008718449769359424</v>
+        <v>0.003407205403274975</v>
       </c>
       <c r="K21" t="n">
-        <v>2.494668804911499e-10</v>
+        <v>9.867376519892912e-12</v>
       </c>
       <c r="L21" t="n">
-        <v>4.217333927561612e-14</v>
+        <v>2.024921744187788e-09</v>
       </c>
       <c r="M21" t="n">
-        <v>9.580923528496427e-05</v>
-      </c>
-      <c r="N21" t="inlineStr">
+        <v>1.018276594495106e-06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.982209712491005</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT57729.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0004096769641950519</v>
+        <v>0.0007553962319755366</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007802802739317443</v>
+        <v>0.006743537482067515</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005796353874954712</v>
+        <v>0.004777557558146156</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0002131425352472174</v>
+        <v>0.0005142700809985157</v>
       </c>
       <c r="F22" t="n">
-        <v>2.220615544785185e-14</v>
+        <v>2.220424120139156e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002700418856131318</v>
+        <v>3.659974140519336e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.006336593344276248</v>
+        <v>0.001066691364295344</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9677222906490679</v>
+        <v>0.9791264460453913</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01141100295671593</v>
+        <v>0.006978943465643001</v>
       </c>
       <c r="K22" t="n">
-        <v>2.600676247306236e-05</v>
+        <v>4.641163284040127e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>3.494086969209628e-11</v>
+        <v>8.981974624342337e-08</v>
       </c>
       <c r="M22" t="n">
-        <v>1.208825317630057e-05</v>
-      </c>
-      <c r="N22" t="inlineStr">
+        <v>4.093980237559106e-09</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.9791264460453913</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.977770040448537e-06</v>
+        <v>1.235959250323192e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005236708424964147</v>
+        <v>0.001004566563798283</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001127193809137331</v>
+        <v>0.004351681246348427</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001807017358725563</v>
+        <v>0.01629073100088773</v>
       </c>
       <c r="F23" t="n">
-        <v>2.220322673642974e-14</v>
+        <v>2.220256665050787e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>4.310573659150399e-05</v>
+        <v>9.78132145441147e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002613599337916962</v>
+        <v>0.0004069398886851054</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9826891398423921</v>
+        <v>0.9695764977332278</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006472705001319031</v>
+        <v>0.008346185745949525</v>
       </c>
       <c r="K23" t="n">
-        <v>4.48517582550257e-06</v>
+        <v>1.193669762205468e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>1.884223667258244e-13</v>
+        <v>4.588682628758085e-08</v>
       </c>
       <c r="M23" t="n">
-        <v>2.067542876616805e-06</v>
-      </c>
-      <c r="N23" t="inlineStr">
+        <v>1.735053463845384e-08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.9695764977332278</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT59149.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01384136829564125</v>
+        <v>0.01348313331615833</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07512519641655553</v>
+        <v>0.05264882663950692</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01446868030603237</v>
+        <v>0.0146880718705166</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01723397075385771</v>
+        <v>0.01468175327060111</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5839544409448877</v>
+        <v>0.398488449106581</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01962148470674398</v>
+        <v>0.03225520408400891</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01386703677651741</v>
+        <v>0.01592247314551175</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03576285804728115</v>
+        <v>0.01828044702935311</v>
       </c>
       <c r="J24" t="n">
-        <v>0.18689122440726</v>
+        <v>0.3988560017168618</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01309086712544988</v>
+        <v>0.01340001496075438</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01306714847453114</v>
+        <v>0.01389161597676066</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01307572374524163</v>
-      </c>
-      <c r="N24" t="inlineStr">
+        <v>0.01340400888338564</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3988560017168618</v>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>g__F0040</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>g__F0040</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01316497624009986</v>
+        <v>0.01279133677026995</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02297495340827377</v>
+        <v>0.01546965453928552</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01329422176638989</v>
+        <v>0.01550934167461616</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01757126996208948</v>
+        <v>0.01928111374396663</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1955981277544192</v>
+        <v>0.1368055322495518</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01323171190665499</v>
+        <v>0.01256397301615516</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02635009159006179</v>
+        <v>0.01393429753330057</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6338330889783831</v>
+        <v>0.7126995714796992</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02442807059555896</v>
+        <v>0.02313760212568331</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01324939421018682</v>
+        <v>0.01270033743534883</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01314053305956827</v>
+        <v>0.01255346966623188</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01316356052831401</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>g__Prevotella</t>
+        <v>0.01255376976589103</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.7126995714796992</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.717546812799649e-05</v>
+        <v>8.107285255322753e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0004590333652869364</v>
+        <v>0.0002522953769558176</v>
       </c>
       <c r="D26" t="n">
-        <v>4.195499280470087e-05</v>
+        <v>0.00102480536360759</v>
       </c>
       <c r="E26" t="n">
-        <v>0.002091264874077034</v>
+        <v>0.01146603229407317</v>
       </c>
       <c r="F26" t="n">
-        <v>2.220273602184479e-14</v>
+        <v>2.455645307328937e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>4.703551960074528e-05</v>
+        <v>1.024814968304579e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03936863930007487</v>
+        <v>0.001614864481051972</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9515394967064087</v>
+        <v>0.9775808176337316</v>
       </c>
       <c r="J26" t="n">
-        <v>0.006429329208289414</v>
+        <v>0.00797876814096227</v>
       </c>
       <c r="K26" t="n">
-        <v>1.966456125563413e-07</v>
+        <v>5.165456910213227e-08</v>
       </c>
       <c r="L26" t="n">
-        <v>2.220273602184479e-14</v>
+        <v>2.254837315438831e-09</v>
       </c>
       <c r="M26" t="n">
-        <v>5.873919672866812e-06</v>
-      </c>
-      <c r="N26" t="inlineStr">
+        <v>2.651326648486343e-07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9775808176337316</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.625528677090227e-05</v>
+        <v>0.0002265852725917438</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0009271171032097534</v>
+        <v>0.001518219322924685</v>
       </c>
       <c r="D27" t="n">
-        <v>6.617580223323905e-05</v>
+        <v>0.001528288185424069</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003364213863385641</v>
+        <v>0.008087810729924042</v>
       </c>
       <c r="F27" t="n">
-        <v>3.162957547009679e-14</v>
+        <v>5.681152950571026e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>4.307274457633948e-05</v>
+        <v>2.31787096423712e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04852982227923244</v>
+        <v>0.003382156608967042</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9297568372146853</v>
+        <v>0.9560016372701846</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01725151447895167</v>
+        <v>0.02925234137834157</v>
       </c>
       <c r="K27" t="n">
-        <v>1.853554780428011e-07</v>
+        <v>8.886772097485378e-08</v>
       </c>
       <c r="L27" t="n">
-        <v>3.250578122079853e-14</v>
+        <v>5.910091406582428e-09</v>
       </c>
       <c r="M27" t="n">
-        <v>2.48058714125205e-05</v>
-      </c>
-      <c r="N27" t="inlineStr">
+        <v>5.485828086365013e-07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.9560016372701846</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.282946554567454e-05</v>
+        <v>3.98722104528546e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002871193679846611</v>
+        <v>0.0002225059068672285</v>
       </c>
       <c r="D28" t="n">
-        <v>1.228461976939795e-05</v>
+        <v>0.0002973887086104234</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003434888279043679</v>
+        <v>0.01282899248516679</v>
       </c>
       <c r="F28" t="n">
-        <v>2.219976697494835e-14</v>
+        <v>2.220386620869728e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>9.902388000777886e-05</v>
+        <v>8.856082276645281e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07075029724464246</v>
+        <v>0.001304932065033922</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9190074167543577</v>
+        <v>0.9773764678005923</v>
       </c>
       <c r="J28" t="n">
-        <v>0.006376519280171234</v>
+        <v>0.00792069953063035</v>
       </c>
       <c r="K28" t="n">
-        <v>3.370928498842761e-08</v>
+        <v>4.894504207311172e-09</v>
       </c>
       <c r="L28" t="n">
-        <v>2.219976697494835e-14</v>
+        <v>9.448800095088404e-10</v>
       </c>
       <c r="M28" t="n">
-        <v>1.958739914819518e-05</v>
-      </c>
-      <c r="N28" t="inlineStr">
+        <v>2.793709632405394e-07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9773764678005923</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT67224.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01365388348402867</v>
+        <v>0.01344944473789912</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02221039569812053</v>
+        <v>0.0209605351855174</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01417551915040353</v>
+        <v>0.01420123634805885</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01589972949645862</v>
+        <v>0.01351204849858061</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4391952308720806</v>
+        <v>0.4936328234926937</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0693561379111321</v>
+        <v>0.04333784652910424</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01385722659325656</v>
+        <v>0.01726464280121591</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03751206734761999</v>
+        <v>0.01948913640451162</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3341497325560124</v>
+        <v>0.2995291891810739</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01330420702703599</v>
+        <v>0.01318196508429067</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01344582871319887</v>
+        <v>0.03824677648399918</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01324004115065219</v>
-      </c>
-      <c r="N29" t="inlineStr">
+        <v>0.01319435525305486</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.4936328234926937</v>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>g__F0040</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>g__F0040</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT68785.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0002363779929555553</v>
+        <v>0.0001772816156673905</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0258796224234722</v>
+        <v>0.01441013342707571</v>
       </c>
       <c r="D30" t="n">
-        <v>9.231050006068131e-05</v>
+        <v>0.0002236424891696667</v>
       </c>
       <c r="E30" t="n">
-        <v>0.006984143827705543</v>
+        <v>0.006167003276188923</v>
       </c>
       <c r="F30" t="n">
-        <v>2.353506693604077e-14</v>
+        <v>2.220386996193177e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>7.002588828337578e-05</v>
+        <v>0.0003331917757317865</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9300766194481951</v>
+        <v>0.913041797493081</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01741053729601965</v>
+        <v>0.03230491741174101</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0171983795532985</v>
+        <v>0.03333902473949073</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0007333414791918417</v>
+        <v>2.73582243370853e-06</v>
       </c>
       <c r="L30" t="n">
-        <v>1.651165850328742e-09</v>
+        <v>1.202010090120024e-07</v>
       </c>
       <c r="M30" t="n">
-        <v>0.001318639939628235</v>
-      </c>
-      <c r="N30" t="inlineStr">
+        <v>1.517483888094281e-07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.913041797493081</v>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>g__Phocaeicola</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>g__Phocaeicola</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6955.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.173611132195063e-07</v>
+        <v>8.044461415132474e-08</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007160514476767914</v>
+        <v>0.00297587553593543</v>
       </c>
       <c r="D31" t="n">
-        <v>1.495558183229269e-07</v>
+        <v>7.439053686539252e-07</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00056115450578335</v>
+        <v>4.577277563468316e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2.220475653769447e-14</v>
+        <v>2.220571088067757e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001570886317364387</v>
+        <v>0.01346166088432999</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01301352350990028</v>
+        <v>0.008104102119959584</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001094024699419405</v>
+        <v>0.001828925210265728</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9765843996383545</v>
+        <v>0.9730817184219772</v>
       </c>
       <c r="K31" t="n">
-        <v>6.577101835044307e-06</v>
+        <v>7.100957231627469e-08</v>
       </c>
       <c r="L31" t="n">
-        <v>1.047087546236366e-06</v>
+        <v>0.0004996289998946716</v>
       </c>
       <c r="M31" t="n">
-        <v>7.005746075082787e-06</v>
-      </c>
-      <c r="N31" t="inlineStr">
+        <v>1.420692425320717e-06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9730817184219772</v>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6968.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.22509539006134e-07</v>
+        <v>5.384150869102784e-09</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002838824978254013</v>
+        <v>0.0007929335186641581</v>
       </c>
       <c r="D32" t="n">
-        <v>6.4597664066168e-08</v>
+        <v>3.111930444939405e-07</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0002303553351929752</v>
+        <v>9.94330748352287e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>2.220240259662514e-14</v>
+        <v>2.220300739527562e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.000724409935826124</v>
+        <v>0.002531428936715698</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001983602152259295</v>
+        <v>0.0009719700267834598</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0002724058470687939</v>
+        <v>0.0006964783655964672</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9939294548192075</v>
+        <v>0.9925798370849096</v>
       </c>
       <c r="K32" t="n">
-        <v>2.274106597907831e-08</v>
+        <v>9.847410063264581e-12</v>
       </c>
       <c r="L32" t="n">
-        <v>1.716198867949041e-05</v>
+        <v>0.002410726293931863</v>
       </c>
       <c r="M32" t="n">
-        <v>3.275095220616499e-06</v>
-      </c>
-      <c r="N32" t="inlineStr">
+        <v>6.365878850418607e-06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.9925798370849096</v>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT74916.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01332865533193549</v>
+        <v>0.01339996865963296</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0575631254542369</v>
+        <v>0.04869845786698752</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01496599110136287</v>
+        <v>0.01386294210614965</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01670381296627822</v>
+        <v>0.01421988128734462</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4056195539162271</v>
+        <v>0.4048593639423508</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02090737887321666</v>
+        <v>0.03580550267417498</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01344895521021136</v>
+        <v>0.01556434372158877</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05324438832736523</v>
+        <v>0.02402700249075402</v>
       </c>
       <c r="J33" t="n">
-        <v>0.364272369037362</v>
+        <v>0.3863151475531458</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0133022488742108</v>
+        <v>0.01329425900873814</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01331777678953025</v>
+        <v>0.01664557032020284</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01332574411806314</v>
-      </c>
-      <c r="N33" t="inlineStr">
+        <v>0.01330756036892988</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.4048593639423508</v>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>g__F0040</t>
         </is>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>g__F0040</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.552753997536988e-05</v>
+        <v>0.0003534461602281109</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002592133273166406</v>
+        <v>0.001031879575512775</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001232950301564538</v>
+        <v>0.001962955785808089</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002071675536020457</v>
+        <v>0.003688045979728172</v>
       </c>
       <c r="F34" t="n">
-        <v>2.359548906413607e-14</v>
+        <v>2.306925789491805e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0002768486103379257</v>
+        <v>2.040368412455113e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03529579796589524</v>
+        <v>0.0007989901387812703</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9314586416939344</v>
+        <v>0.9540793938615092</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02813738013362143</v>
+        <v>0.03806282400762172</v>
       </c>
       <c r="K34" t="n">
-        <v>4.873739473614498e-06</v>
+        <v>1.939370231869293e-06</v>
       </c>
       <c r="L34" t="n">
-        <v>2.369775072767301e-14</v>
+        <v>2.939585684410446e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>1.382647737142617e-05</v>
-      </c>
-      <c r="N34" t="inlineStr">
+        <v>1.184968453704346e-07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.9540793938615092</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>g__Prevotella</t>
         </is>

--- a/outputs-HGR-r202/f__Bacteroidaceae.xlsx
+++ b/outputs-HGR-r202/f__Bacteroidaceae.xlsx
@@ -523,43 +523,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001162973784090449</v>
+        <v>2.447904038522298e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001633635938686753</v>
+        <v>0.001300644870724966</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00356090443176208</v>
+        <v>0.001244971277813992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003736794834545185</v>
+        <v>0.002217857018560348</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220021291816724e-14</v>
+        <v>2.220202699251995e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.30160179092143e-05</v>
+        <v>1.050259493493108e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001701770511174627</v>
+        <v>0.001362671644630931</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9862486392427499</v>
+        <v>0.9916715578982681</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004489261651551476</v>
+        <v>0.001463066049886275</v>
       </c>
       <c r="K2" t="n">
-        <v>1.122138431186738e-05</v>
+        <v>0.0001444364095395811</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6308854035278e-08</v>
+        <v>1.381432140847099e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>1.576008075766862e-08</v>
+        <v>0.000559799380912152</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9862486392427499</v>
+        <v>0.9916715578982681</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -579,43 +579,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.131376413517272e-05</v>
+        <v>2.468473300117289e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1075693480696874</v>
+        <v>0.1227176429561108</v>
       </c>
       <c r="D3" t="n">
-        <v>3.219593634185278e-05</v>
+        <v>0.002597767254108383</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002740285603250668</v>
+        <v>0.0005585787786763939</v>
       </c>
       <c r="F3" t="n">
-        <v>2.219402462724646e-14</v>
+        <v>2.219064176542417e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004878963513440423</v>
+        <v>1.353766242357654e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004415573416244013</v>
+        <v>0.0005292304251457231</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001604043626199035</v>
+        <v>0.001502125724106934</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8851006632731458</v>
+        <v>0.870371625927247</v>
       </c>
       <c r="K3" t="n">
-        <v>5.382596644051e-06</v>
+        <v>6.055205454755582e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>8.105717061560109e-05</v>
+        <v>0.0001789258294116807</v>
       </c>
       <c r="M3" t="n">
-        <v>1.446147818937033e-06</v>
+        <v>0.001445328655198439</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8851006632731458</v>
+        <v>0.870371625927247</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -635,43 +635,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.294304980188058e-05</v>
+        <v>2.838032372152566e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003039884819111111</v>
+        <v>0.003914575898835627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001724506579486819</v>
+        <v>1.880217899953154e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001773280771842774</v>
+        <v>0.001516131461798206</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220229998853011e-14</v>
+        <v>2.220395680145297e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000115830920280174</v>
+        <v>2.037022261718878e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006801948668147238</v>
+        <v>0.02408542721222589</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9867069214440659</v>
+        <v>0.965154817449274</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001356513971713884</v>
+        <v>0.0004758701642808125</v>
       </c>
       <c r="K4" t="n">
-        <v>5.361476254252036e-06</v>
+        <v>1.06480363133088e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.485701325961466e-05</v>
+        <v>1.482344418023219e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.207552498632642e-09</v>
+        <v>0.0047784868080868</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9867069214440659</v>
+        <v>0.965154817449274</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -691,43 +691,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.262886765486719e-06</v>
+        <v>2.336965216526914e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000289162668454693</v>
+        <v>0.001632276672422582</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001239373220846447</v>
+        <v>8.179032944360372e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003487716617577228</v>
+        <v>0.003465957542385864</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220421683475816e-14</v>
+        <v>2.220383688826388e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>4.357781386232681e-07</v>
+        <v>1.225574258995016e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009651508836968054</v>
+        <v>0.01213808286023288</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9811978423559351</v>
+        <v>0.9796011020782081</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005247430333384553</v>
+        <v>0.0004619875294309129</v>
       </c>
       <c r="K5" t="n">
-        <v>2.817975453952269e-11</v>
+        <v>1.55075405895487e-09</v>
       </c>
       <c r="L5" t="n">
-        <v>2.114244422177051e-09</v>
+        <v>1.622467391579159e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>7.010582451477994e-07</v>
+        <v>0.002688848571656049</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9811978423559351</v>
+        <v>0.9796011020782081</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -747,43 +747,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.587074816167226e-07</v>
+        <v>1.26849401870854e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>1.301590189102514e-05</v>
+        <v>0.0003904800250785401</v>
       </c>
       <c r="D6" t="n">
-        <v>8.656751757284355e-05</v>
+        <v>2.234183633565842e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002548463529663295</v>
+        <v>0.000515576169462649</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220347654644594e-14</v>
+        <v>2.220217307218118e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>1.390767731165572e-07</v>
+        <v>1.487725132168467e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005293381655223578</v>
+        <v>0.005414684231113093</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9888824812464083</v>
+        <v>0.9919121230336537</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003175099782867373</v>
+        <v>0.000326103805629741</v>
       </c>
       <c r="K6" t="n">
-        <v>2.977911476282097e-12</v>
+        <v>5.7342358198957e-10</v>
       </c>
       <c r="L6" t="n">
-        <v>8.173933107715388e-10</v>
+        <v>2.732512481979133e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>1.917617253585177e-07</v>
+        <v>0.001417272785497649</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9888824812464083</v>
+        <v>0.9919121230336537</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -803,43 +803,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.252168423088675e-05</v>
+        <v>1.630966392083966e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008505776621140873</v>
+        <v>0.009666433965984664</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000572655252047019</v>
+        <v>1.946071922559507e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003627765871117632</v>
+        <v>0.005053994388228584</v>
       </c>
       <c r="F7" t="n">
-        <v>2.647792716358135e-14</v>
+        <v>2.220536552005553e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>5.075635920980901e-05</v>
+        <v>2.851582343668949e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005879551866629722</v>
+        <v>0.008499547328399915</v>
       </c>
       <c r="I7" t="n">
-        <v>0.894476369934232</v>
+        <v>0.9552276171474474</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08683490147476278</v>
+        <v>0.01262919124131499</v>
       </c>
       <c r="K7" t="n">
-        <v>1.302795642829068e-07</v>
+        <v>5.88089366494086e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>3.954336358475584e-05</v>
+        <v>1.2678484984837e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>2.729345367429986e-08</v>
+        <v>0.008871327388760871</v>
       </c>
       <c r="N7" t="n">
-        <v>0.894476369934232</v>
+        <v>0.9552276171474474</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -859,43 +859,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.6726410941554e-06</v>
+        <v>2.142745680398593e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003356859036578049</v>
+        <v>0.00244691721686942</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008452346376578534</v>
+        <v>0.0001821837330553088</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002817424700085144</v>
+        <v>0.001247623624435394</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220206429512479e-14</v>
+        <v>2.220834746692727e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002312837503193151</v>
+        <v>8.988159400053747e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009894223686535947</v>
+        <v>0.02338244455769855</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9810200242129171</v>
+        <v>0.9535469509485215</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0005654390734094362</v>
+        <v>0.0003696425556075512</v>
       </c>
       <c r="K8" t="n">
-        <v>1.352976470305247e-06</v>
+        <v>3.931318036357358e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001264343090200271</v>
+        <v>0.0004093398561412588</v>
       </c>
       <c r="M8" t="n">
-        <v>1.421947102313271e-07</v>
+        <v>0.01838055057340849</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9810200242129171</v>
+        <v>0.9535469509485215</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -915,43 +915,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.141167224245718e-05</v>
+        <v>5.398293912755279e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05748600513362512</v>
+        <v>0.06489584472027678</v>
       </c>
       <c r="D9" t="n">
-        <v>1.875534190602322e-05</v>
+        <v>0.001644571596571951</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002417891896095595</v>
+        <v>0.0002572927578508615</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220286073759674e-14</v>
+        <v>2.220231528020059e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007925759239715906</v>
+        <v>1.191727759086429e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000901732320838442</v>
+        <v>0.0008378727436933807</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002749915223321921</v>
+        <v>0.005098074668057335</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9305041597080002</v>
+        <v>0.9218573966724258</v>
       </c>
       <c r="K9" t="n">
-        <v>1.230157303091447e-06</v>
+        <v>1.880079969090613e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001328473306556243</v>
+        <v>5.273412892712173e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>2.639468275933385e-05</v>
+        <v>0.005271511695765112</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9305041597080002</v>
+        <v>0.9218573966724258</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -971,52 +971,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.3645162559338e-06</v>
+        <v>2.583289888711166e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01016461560727296</v>
+        <v>0.02741570702171794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0005385618005539062</v>
+        <v>0.0002607938661573641</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005182071917320012</v>
+        <v>0.004343056866077143</v>
       </c>
       <c r="F10" t="n">
-        <v>2.221171790241105e-14</v>
+        <v>2.227691563207741e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0008913873244689408</v>
+        <v>1.309401688798605e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001134409921696799</v>
+        <v>0.001062657700976825</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3314782598754301</v>
+        <v>0.7080425918063806</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6505339713114645</v>
+        <v>0.2556576915860525</v>
       </c>
       <c r="K10" t="n">
-        <v>4.945668367544756e-06</v>
+        <v>3.28859482297423e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>6.807918102276349e-05</v>
+        <v>2.803758603146689e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>3.328761242532195e-07</v>
+        <v>0.003170497664984145</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6505339713114645</v>
+        <v>0.7080425918063806</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia(reject)</t>
+          <t>g__Prevotella(reject)</t>
         </is>
       </c>
     </row>
@@ -1027,43 +1027,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0001352734140197063</v>
+        <v>0.01240907378295704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06716343577338613</v>
+        <v>0.07599235819164389</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001044469909775973</v>
+        <v>0.01247509349746925</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02438114306863947</v>
+        <v>0.01519690161058547</v>
       </c>
       <c r="F11" t="n">
-        <v>3.996701308607744e-14</v>
+        <v>0.1562140455663513</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001273790408845901</v>
+        <v>0.01247509658367157</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7913420285678248</v>
+        <v>0.6334023689440911</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05143118961337586</v>
+        <v>0.02669918464783214</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06322671641619264</v>
+        <v>0.01645740534032006</v>
       </c>
       <c r="K11" t="n">
-        <v>6.03401473079246e-07</v>
+        <v>0.01238186175436837</v>
       </c>
       <c r="L11" t="n">
-        <v>1.312037783828667e-06</v>
+        <v>0.01238184739816349</v>
       </c>
       <c r="M11" t="n">
-        <v>3.738864275834104e-08</v>
+        <v>0.01391476268254628</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7913420285678248</v>
+        <v>0.6334023689440911</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1083,43 +1083,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.435832110328504e-05</v>
+        <v>5.883666311459455e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005267058457162109</v>
+        <v>0.02861256239552309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001505398426181284</v>
+        <v>1.344522342854012e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003663798992446248</v>
+        <v>0.001647462868748472</v>
       </c>
       <c r="F12" t="n">
-        <v>2.354777661443844e-14</v>
+        <v>2.220809629123999e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001112131836261935</v>
+        <v>2.072589017138812e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01920456198413461</v>
+        <v>0.01163185588257379</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9454964300769035</v>
+        <v>0.9490708531727708</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02606169237602802</v>
+        <v>0.004396467025597504</v>
       </c>
       <c r="K12" t="n">
-        <v>2.205282428686955e-07</v>
+        <v>6.067557507365926e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>3.011963311862532e-05</v>
+        <v>1.411395199862711e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>6.604592774898885e-09</v>
+        <v>0.004551723471454444</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9454964300769035</v>
+        <v>0.9490708531727708</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1139,43 +1139,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.359317855359442e-06</v>
+        <v>4.235584293408339e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03023895229159012</v>
+        <v>0.02545856909260366</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001627879167221395</v>
+        <v>0.00354830409732399</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0003927772574086039</v>
+        <v>0.001113278605501937</v>
       </c>
       <c r="F13" t="n">
-        <v>2.222806333365024e-14</v>
+        <v>2.221147633836861e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03853029144287107</v>
+        <v>5.915695403557982e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0003444848275976361</v>
+        <v>0.003325158296980558</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01058536655990138</v>
+        <v>0.01414292982267424</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9194005791095993</v>
+        <v>0.9509037700011296</v>
       </c>
       <c r="K13" t="n">
-        <v>1.208094590421405e-05</v>
+        <v>5.146384473895104e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003309756038875655</v>
+        <v>0.0005637839873144682</v>
       </c>
       <c r="M13" t="n">
-        <v>3.447266403596272e-07</v>
+        <v>0.0008293497133814511</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9194005791095993</v>
+        <v>0.9509037700011296</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1195,43 +1195,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.856220461780217e-06</v>
+        <v>7.891602527880939e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01813675879382369</v>
+        <v>0.01713157191373513</v>
       </c>
       <c r="D14" t="n">
-        <v>1.354027200227611e-05</v>
+        <v>0.001908696972799006</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002024708839535436</v>
+        <v>0.0005715053882032207</v>
       </c>
       <c r="F14" t="n">
-        <v>2.221604449189493e-14</v>
+        <v>2.221248572859986e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01641170343735749</v>
+        <v>9.539739505294178e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0003887278827789204</v>
+        <v>0.000471677003713717</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01515573811521905</v>
+        <v>0.0282888583663271</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9481224927911791</v>
+        <v>0.9481721241726622</v>
       </c>
       <c r="K14" t="n">
-        <v>9.872067963008027e-08</v>
+        <v>4.213439385401213e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001562741346769232</v>
+        <v>0.0008144167748887588</v>
       </c>
       <c r="M14" t="n">
-        <v>3.87153575304357e-06</v>
+        <v>0.002533646970682562</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9481224927911791</v>
+        <v>0.9481721241726622</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1251,43 +1251,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.252202888538097e-05</v>
+        <v>0.0001881662712895842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01908323600055182</v>
+        <v>0.04616494412989321</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00041184752203457</v>
+        <v>0.0002011256662533338</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006831387303597736</v>
+        <v>0.007120079625178061</v>
       </c>
       <c r="F15" t="n">
-        <v>4.342931710183234e-14</v>
+        <v>3.710584659484148e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004110536804354939</v>
+        <v>2.506357939400195e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04676471608538794</v>
+        <v>0.02625340172125082</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8104337630783865</v>
+        <v>0.8566400956977521</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1145364774889336</v>
+        <v>0.04549956790103245</v>
       </c>
       <c r="K15" t="n">
-        <v>4.060029438758119e-07</v>
+        <v>2.959714007040511e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001464478363293329</v>
+        <v>0.0004779339405231401</v>
       </c>
       <c r="M15" t="n">
-        <v>1.124455061476629e-07</v>
+        <v>0.01742666175338924</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8104337630783865</v>
+        <v>0.8566400956977521</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1307,43 +1307,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.621526590031538e-05</v>
+        <v>2.011172622024559e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000206945295613484</v>
+        <v>0.0006202409463136535</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002993390184936287</v>
+        <v>0.000877459003814334</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006035976317405532</v>
+        <v>0.001536905051695777</v>
       </c>
       <c r="F16" t="n">
-        <v>2.220392958963552e-14</v>
+        <v>2.220281995609894e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>5.526100550249458e-06</v>
+        <v>6.993202807039626e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002212616471719318</v>
+        <v>0.001496046714720003</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9794584196674994</v>
+        <v>0.9912893018544873</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01099204856726608</v>
+        <v>0.003625988206422762</v>
       </c>
       <c r="K16" t="n">
-        <v>1.939807345343005e-07</v>
+        <v>9.571903132893117e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>3.266963938597065e-09</v>
+        <v>1.415393332460995e-09</v>
       </c>
       <c r="M16" t="n">
-        <v>1.970593615269037e-08</v>
+        <v>0.0005173799749705522</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9794584196674994</v>
+        <v>0.9912893018544873</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1363,43 +1363,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.064402655991417e-05</v>
+        <v>1.7124646097683e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004845194563180101</v>
+        <v>0.0003889527072699064</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002688270666512296</v>
+        <v>0.0006807455111057963</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01179158880125739</v>
+        <v>0.004034760482075908</v>
       </c>
       <c r="F17" t="n">
-        <v>2.546565773101659e-14</v>
+        <v>2.220166460727164e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>7.46234106587758e-06</v>
+        <v>9.840334643767999e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001378663422666677</v>
+        <v>0.008109725175092564</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9572254388904839</v>
+        <v>0.9846703941543106</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02636227033229004</v>
+        <v>0.001491157091899416</v>
       </c>
       <c r="K17" t="n">
-        <v>1.084356809363381e-06</v>
+        <v>6.961809183693126e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>1.281729750797304e-08</v>
+        <v>4.509534182468698e-09</v>
       </c>
       <c r="M17" t="n">
-        <v>4.488871331440491e-08</v>
+        <v>0.0005276772961109463</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9572254388904839</v>
+        <v>0.9846703941543106</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1419,43 +1419,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.102478424161844e-06</v>
+        <v>1.769971636625195e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>4.103761785442095e-05</v>
+        <v>0.0002180374789904896</v>
       </c>
       <c r="D18" t="n">
-        <v>9.512477179272116e-06</v>
+        <v>1.904305446895453e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002576262522802279</v>
+        <v>0.0003379931970385626</v>
       </c>
       <c r="F18" t="n">
-        <v>2.220325259940694e-14</v>
+        <v>2.220354888747277e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>1.952417416022087e-08</v>
+        <v>6.659218516863248e-09</v>
       </c>
       <c r="H18" t="n">
-        <v>0.007369406219362652</v>
+        <v>0.005454114616108436</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9874260443380688</v>
+        <v>0.9862985290131485</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002554166101092715</v>
+        <v>0.0001138411317240711</v>
       </c>
       <c r="K18" t="n">
-        <v>4.625279759108653e-13</v>
+        <v>4.641737179172732e-11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.636224994484327e-09</v>
+        <v>2.572811420551673e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>2.244708433183181e-05</v>
+        <v>0.007556664573944942</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9874260443380688</v>
+        <v>0.9862985290131485</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1475,43 +1475,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.268300177226258e-06</v>
+        <v>1.177818315702799e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002012619853044795</v>
+        <v>0.0004221399106309881</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0004581471656538166</v>
+        <v>9.277352829475485e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00256083760428201</v>
+        <v>0.002742343355487888</v>
       </c>
       <c r="F19" t="n">
-        <v>2.220076772325638e-14</v>
+        <v>2.220399225607613e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002614966860262961</v>
+        <v>5.963284308770829e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00819964901206054</v>
+        <v>0.02650636942987178</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9818741300851606</v>
+        <v>0.9625452129632389</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003565879350225886</v>
+        <v>0.0005552208308569355</v>
       </c>
       <c r="K19" t="n">
-        <v>1.173511295780083e-06</v>
+        <v>2.95888600704378e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001062707512898242</v>
+        <v>0.0001108324624427389</v>
       </c>
       <c r="M19" t="n">
-        <v>9.091915269490656e-08</v>
+        <v>0.007004407165680943</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9818741300851606</v>
+        <v>0.9625452129632389</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1531,43 +1531,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.9778018254697e-05</v>
+        <v>2.56449478052545e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0009735815449070018</v>
+        <v>0.003861552513054752</v>
       </c>
       <c r="D20" t="n">
-        <v>0.007034017738867774</v>
+        <v>0.0004846474780251569</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003605384770294784</v>
+        <v>0.008442779223070797</v>
       </c>
       <c r="F20" t="n">
-        <v>2.220413830777369e-14</v>
+        <v>2.220595471116686e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001926265407659057</v>
+        <v>0.0001067734770345854</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008975282558495308</v>
+        <v>0.004953704502932963</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9623595091813038</v>
+        <v>0.9768042261468562</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02489923924698008</v>
+        <v>0.003975954857682976</v>
       </c>
       <c r="K20" t="n">
-        <v>1.304852373013913e-06</v>
+        <v>3.657551757964729e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>7.020955457527635e-06</v>
+        <v>3.825117245161277e-06</v>
       </c>
       <c r="M20" t="n">
-        <v>8.894923925954815e-09</v>
+        <v>0.001360314637536677</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9623595091813038</v>
+        <v>0.9768042261468562</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1587,43 +1587,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.551838639955212e-07</v>
+        <v>9.12151084571391e-07</v>
       </c>
       <c r="C21" t="n">
-        <v>2.094959274305655e-05</v>
+        <v>0.0009923148383604993</v>
       </c>
       <c r="D21" t="n">
-        <v>1.095978703948174e-05</v>
+        <v>4.150262045956359e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001008367279517734</v>
+        <v>0.0002241453130532256</v>
       </c>
       <c r="F21" t="n">
-        <v>2.220208317343121e-14</v>
+        <v>2.220275970961308e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>5.02482048546239e-08</v>
+        <v>3.377827604651341e-08</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01334137970294535</v>
+        <v>0.00503072504696562</v>
       </c>
       <c r="I21" t="n">
-        <v>0.982209712491005</v>
+        <v>0.9909388332459016</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003407205403274975</v>
+        <v>0.0002639998342446946</v>
       </c>
       <c r="K21" t="n">
-        <v>9.867376519892912e-12</v>
+        <v>2.10568967233078e-09</v>
       </c>
       <c r="L21" t="n">
-        <v>2.024921744187788e-09</v>
+        <v>1.392144136552965e-09</v>
       </c>
       <c r="M21" t="n">
-        <v>1.018276594495106e-06</v>
+        <v>0.002544882032211835</v>
       </c>
       <c r="N21" t="n">
-        <v>0.982209712491005</v>
+        <v>0.9909388332459016</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1643,43 +1643,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0007553962319755366</v>
+        <v>0.0002740037334024884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.006743537482067515</v>
+        <v>0.04753926087947582</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004777557558146156</v>
+        <v>0.0008118395026990896</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0005142700809985157</v>
+        <v>0.0002238261970106586</v>
       </c>
       <c r="F22" t="n">
-        <v>2.220424120139156e-14</v>
+        <v>2.219622844058367e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>3.659974140519336e-05</v>
+        <v>4.290005619335733e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001066691364295344</v>
+        <v>0.001267471651260989</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9791264460453913</v>
+        <v>0.9468505793185643</v>
       </c>
       <c r="J22" t="n">
-        <v>0.006978943465643001</v>
+        <v>0.00198659747632291</v>
       </c>
       <c r="K22" t="n">
-        <v>4.641163284040127e-07</v>
+        <v>2.29454253454391e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>8.981974624342337e-08</v>
+        <v>2.512664386631255e-08</v>
       </c>
       <c r="M22" t="n">
-        <v>4.093980237559106e-09</v>
+        <v>0.001001201515869662</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9791264460453913</v>
+        <v>0.9468505793185643</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1699,43 +1699,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.235959250323192e-05</v>
+        <v>7.009549767791569e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001004566563798283</v>
+        <v>0.002322249578436505</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004351681246348427</v>
+        <v>0.0003228436496847019</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01629073100088773</v>
+        <v>0.005072050031458798</v>
       </c>
       <c r="F23" t="n">
-        <v>2.220256665050787e-14</v>
+        <v>2.220331487267468e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>9.78132145441147e-06</v>
+        <v>5.067807212562166e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0004069398886851054</v>
+        <v>0.003288662462669888</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9695764977332278</v>
+        <v>0.9865340066972732</v>
       </c>
       <c r="J23" t="n">
-        <v>0.008346185745949525</v>
+        <v>0.001594879826450988</v>
       </c>
       <c r="K23" t="n">
-        <v>1.193669762205468e-06</v>
+        <v>8.031046935507372e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>4.588682628758085e-08</v>
+        <v>4.123587289511103e-08</v>
       </c>
       <c r="M23" t="n">
-        <v>1.735053463845384e-08</v>
+        <v>0.0008451581142148811</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9695764977332278</v>
+        <v>0.9865340066972732</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1755,43 +1755,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01348313331615833</v>
+        <v>0.01378466784341438</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05264882663950692</v>
+        <v>0.03236296631632805</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0146880718705166</v>
+        <v>0.01909137837186943</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01468175327060111</v>
+        <v>0.02243477054122066</v>
       </c>
       <c r="F24" t="n">
-        <v>0.398488449106581</v>
+        <v>0.4394723247021675</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03225520408400891</v>
+        <v>0.01715399132235001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01592247314551175</v>
+        <v>0.01682841189366697</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01828044702935311</v>
+        <v>0.01938559542998726</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3988560017168618</v>
+        <v>0.3744196304724476</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01340001496075438</v>
+        <v>0.01337801526428121</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01389161597676066</v>
+        <v>0.01367230561062918</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01340400888338564</v>
+        <v>0.01801594223163804</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3988560017168618</v>
+        <v>0.4394723247021675</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__F0040(reject)</t>
         </is>
       </c>
     </row>
@@ -1811,43 +1811,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01279133677026995</v>
+        <v>0.000337090017450144</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01546965453928552</v>
+        <v>0.005029807119318834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01550934167461616</v>
+        <v>0.01957533280247495</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01928111374396663</v>
+        <v>0.00445569545921552</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1368055322495518</v>
+        <v>4.384450420309943e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01256397301615516</v>
+        <v>3.363232389702398e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01393429753330057</v>
+        <v>0.006632617750933999</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7126995714796992</v>
+        <v>0.9456106350483802</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02313760212568331</v>
+        <v>0.01388609067740171</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01270033743534883</v>
+        <v>0.003065791096431411</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01255346966623188</v>
+        <v>6.767870166536772e-09</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01255376976589103</v>
+        <v>0.001373300936582261</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7126995714796992</v>
+        <v>0.9456106350483802</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>g__Prevotella(reject)</t>
+          <t>g__Prevotella</t>
         </is>
       </c>
     </row>
@@ -1867,43 +1867,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.107285255322753e-05</v>
+        <v>4.192738085528154e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0002522953769558176</v>
+        <v>0.0002950661640681513</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00102480536360759</v>
+        <v>0.0008833065686751379</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01146603229407317</v>
+        <v>0.0006100592231870591</v>
       </c>
       <c r="F26" t="n">
-        <v>2.455645307328937e-14</v>
+        <v>2.220160079094154e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>1.024814968304579e-06</v>
+        <v>4.047287490047764e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001614864481051972</v>
+        <v>0.003277673842294842</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9775808176337316</v>
+        <v>0.9934896410206263</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00797876814096227</v>
+        <v>0.0008657547634041763</v>
       </c>
       <c r="K26" t="n">
-        <v>5.165456910213227e-08</v>
+        <v>1.09404032319123e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>2.254837315438831e-09</v>
+        <v>6.989855256512077e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>2.651326648486343e-07</v>
+        <v>0.0005215826471592625</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9775808176337316</v>
+        <v>0.9934896410206263</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1923,43 +1923,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0002265852725917438</v>
+        <v>5.070922281467208e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001518219322924685</v>
+        <v>0.0004468169472982663</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001528288185424069</v>
+        <v>0.002923763003915251</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008087810729924042</v>
+        <v>0.0004548095817698754</v>
       </c>
       <c r="F27" t="n">
-        <v>5.681152950571026e-14</v>
+        <v>2.220012888728637e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>2.31787096423712e-06</v>
+        <v>2.686550898579481e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>0.003382156608967042</v>
+        <v>0.00444265501296571</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9560016372701846</v>
+        <v>0.9895152504554644</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02925234137834157</v>
+        <v>0.001498318466820717</v>
       </c>
       <c r="K27" t="n">
-        <v>8.886772097485378e-08</v>
+        <v>8.147946450107319e-06</v>
       </c>
       <c r="L27" t="n">
-        <v>5.910091406582428e-09</v>
+        <v>9.351646034122453e-10</v>
       </c>
       <c r="M27" t="n">
-        <v>5.485828086365013e-07</v>
+        <v>0.0006568418764155619</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9560016372701846</v>
+        <v>0.9895152504554644</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1979,43 +1979,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.98722104528546e-05</v>
+        <v>3.520298958929735e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002225059068672285</v>
+        <v>0.0001898853300058478</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0002973887086104234</v>
+        <v>0.0004946595017176871</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01282899248516679</v>
+        <v>0.002207831578930817</v>
       </c>
       <c r="F28" t="n">
-        <v>2.220386620869728e-14</v>
+        <v>2.220282547368711e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>8.856082276645281e-06</v>
+        <v>1.867309651141473e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001304932065033922</v>
+        <v>0.005183479915942197</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9773764678005923</v>
+        <v>0.9906186123807853</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00792069953063035</v>
+        <v>0.0006046457041954805</v>
       </c>
       <c r="K28" t="n">
-        <v>4.894504207311172e-09</v>
+        <v>1.243738008167512e-06</v>
       </c>
       <c r="L28" t="n">
-        <v>9.448800095088404e-10</v>
+        <v>6.058787940217381e-10</v>
       </c>
       <c r="M28" t="n">
-        <v>2.793709632405394e-07</v>
+        <v>0.000645765158412582</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9773764678005923</v>
+        <v>0.9906186123807853</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2035,52 +2035,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01344944473789912</v>
+        <v>0.0134774629568767</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0209605351855174</v>
+        <v>0.022064170436435</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01420123634805885</v>
+        <v>0.02970182235916484</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01351204849858061</v>
+        <v>0.01485332235310964</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4936328234926937</v>
+        <v>0.1780302164910953</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04333784652910424</v>
+        <v>0.02297837691707138</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01726464280121591</v>
+        <v>0.0141052363044456</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01948913640451162</v>
+        <v>0.02031661090417586</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2995291891810739</v>
+        <v>0.6292281479518633</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01318196508429067</v>
+        <v>0.01250726379339476</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03824677648399918</v>
+        <v>0.02409739381793952</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01319435525305486</v>
+        <v>0.01863997571442799</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4936328234926937</v>
+        <v>0.6292281479518633</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__Prevotellamassilia(reject)</t>
         </is>
       </c>
     </row>
@@ -2091,43 +2091,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0001772816156673905</v>
+        <v>6.524885280979196e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01441013342707571</v>
+        <v>0.109151127348189</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0002236424891696667</v>
+        <v>0.00019375142730831</v>
       </c>
       <c r="E30" t="n">
-        <v>0.006167003276188923</v>
+        <v>0.002297846878988098</v>
       </c>
       <c r="F30" t="n">
-        <v>2.220386996193177e-14</v>
+        <v>3.794522987314987e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0003331917757317865</v>
+        <v>0.000104034289335721</v>
       </c>
       <c r="H30" t="n">
-        <v>0.913041797493081</v>
+        <v>0.8149663922574969</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03230491741174101</v>
+        <v>0.06104985159169935</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03333902473949073</v>
+        <v>0.008472067416555889</v>
       </c>
       <c r="K30" t="n">
-        <v>2.73582243370853e-06</v>
+        <v>3.730518917370355e-05</v>
       </c>
       <c r="L30" t="n">
-        <v>1.202010090120024e-07</v>
+        <v>8.053120739704683e-07</v>
       </c>
       <c r="M30" t="n">
-        <v>1.517483888094281e-07</v>
+        <v>0.003661569436331306</v>
       </c>
       <c r="N30" t="n">
-        <v>0.913041797493081</v>
+        <v>0.8149663922574969</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2147,43 +2147,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.044461415132474e-08</v>
+        <v>1.077507840135645e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00297587553593543</v>
+        <v>0.001392240820566322</v>
       </c>
       <c r="D31" t="n">
-        <v>7.439053686539252e-07</v>
+        <v>0.0002529398629990102</v>
       </c>
       <c r="E31" t="n">
-        <v>4.577277563468316e-05</v>
+        <v>0.0001992771713594456</v>
       </c>
       <c r="F31" t="n">
-        <v>2.220571088067757e-14</v>
+        <v>2.220350273184187e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01346166088432999</v>
+        <v>0.0002330100483871616</v>
       </c>
       <c r="H31" t="n">
-        <v>0.008104102119959584</v>
+        <v>0.002585642110526336</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001828925210265728</v>
+        <v>0.002133353423366723</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9730817184219772</v>
+        <v>0.9826706362282867</v>
       </c>
       <c r="K31" t="n">
-        <v>7.100957231627469e-08</v>
+        <v>6.560712145921452e-06</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0004996289998946716</v>
+        <v>0.01039425479032377</v>
       </c>
       <c r="M31" t="n">
-        <v>1.420692425320717e-06</v>
+        <v>0.0001213097536152148</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9730817184219772</v>
+        <v>0.9826706362282867</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2203,43 +2203,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.384150869102784e-09</v>
+        <v>1.723021206141598e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0007929335186641581</v>
+        <v>0.0001882146809759742</v>
       </c>
       <c r="D32" t="n">
-        <v>3.111930444939405e-07</v>
+        <v>5.058207637909951e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>9.94330748352287e-06</v>
+        <v>6.04434119454154e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2.220300739527562e-14</v>
+        <v>2.219999657165593e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002531428936715698</v>
+        <v>0.0001030055246447405</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0009719700267834598</v>
+        <v>0.0005047293640360339</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0006964783655964672</v>
+        <v>0.003256012970982327</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9925798370849096</v>
+        <v>0.9740574528337961</v>
       </c>
       <c r="K32" t="n">
-        <v>9.847410063264581e-12</v>
+        <v>4.802465439236789e-08</v>
       </c>
       <c r="L32" t="n">
-        <v>0.002410726293931863</v>
+        <v>0.02159300892768897</v>
       </c>
       <c r="M32" t="n">
-        <v>6.365878850418607e-06</v>
+        <v>0.0001847791636687054</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9925798370849096</v>
+        <v>0.9740574528337961</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2259,52 +2259,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01339996865963296</v>
+        <v>0.01197925300973474</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04869845786698752</v>
+        <v>0.01875489826288924</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01386294210614965</v>
+        <v>0.01930861723823293</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01421988128734462</v>
+        <v>0.0172453326082313</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4048593639423508</v>
+        <v>0.1314769143261577</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03580550267417498</v>
+        <v>0.01885396217457031</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01556434372158877</v>
+        <v>0.01587529175683083</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02402700249075402</v>
+        <v>0.02807428662939365</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3863151475531458</v>
+        <v>0.6864226344565885</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01329425900873814</v>
+        <v>0.01173345720768737</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01664557032020284</v>
+        <v>0.01283611904844794</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01330756036892988</v>
+        <v>0.02743923328123562</v>
       </c>
       <c r="N33" t="n">
-        <v>0.4048593639423508</v>
+        <v>0.6864226344565885</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>g__F0040</t>
+          <t>g__Prevotellamassilia</t>
         </is>
       </c>
     </row>
@@ -2315,43 +2315,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0003534461602281109</v>
+        <v>8.678363471698338e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001031879575512775</v>
+        <v>0.0007091264164991209</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001962955785808089</v>
+        <v>0.003443593894654254</v>
       </c>
       <c r="E34" t="n">
-        <v>0.003688045979728172</v>
+        <v>0.001016941065570757</v>
       </c>
       <c r="F34" t="n">
-        <v>2.306925789491805e-14</v>
+        <v>2.220253140411875e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>2.040368412455113e-05</v>
+        <v>3.710835116410493e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0007989901387812703</v>
+        <v>0.002914404920887897</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9540793938615092</v>
+        <v>0.9867432020799366</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03806282400762172</v>
+        <v>0.004552054030019017</v>
       </c>
       <c r="K34" t="n">
-        <v>1.939370231869293e-06</v>
+        <v>0.0001216922781626708</v>
       </c>
       <c r="L34" t="n">
-        <v>2.939585684410446e-09</v>
+        <v>1.496990607507466e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>1.184968453704346e-07</v>
+        <v>0.0003750918313757479</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9540793938615092</v>
+        <v>0.9867432020799366</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>

--- a/outputs-HGR-r202/f__Bacteroidaceae.xlsx
+++ b/outputs-HGR-r202/f__Bacteroidaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -561,6 +566,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -612,6 +622,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -663,6 +678,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -714,6 +734,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -765,6 +790,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -816,6 +846,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -867,6 +902,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -918,6 +958,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -969,6 +1014,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1020,6 +1070,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>g__Prevotella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1071,6 +1126,11 @@
           <t>g__Phocaeicola</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>g__Phocaeicola</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1122,6 +1182,11 @@
           <t>g__F0040</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>g__F0040</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1173,6 +1238,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1224,6 +1294,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1275,6 +1350,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1326,6 +1406,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1377,6 +1462,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1428,6 +1518,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1479,6 +1574,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1530,6 +1630,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1581,6 +1686,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1632,6 +1742,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1683,6 +1798,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1734,6 +1854,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1785,6 +1910,11 @@
           <t>g__F0040</t>
         </is>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>g__F0040</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1836,6 +1966,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1887,6 +2022,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1938,6 +2078,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1989,6 +2134,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2040,6 +2190,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2091,6 +2246,11 @@
           <t>g__Phocaeicola</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>g__Phocaeicola</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2142,6 +2302,11 @@
           <t>g__Bacteroides</t>
         </is>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>g__Bacteroides</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2193,6 +2358,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2244,6 +2414,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2295,6 +2470,11 @@
           <t>g__Prevotellamassilia</t>
         </is>
       </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2346,6 +2526,11 @@
           <t>g__Prevotella</t>
         </is>
       </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>g__Prevotella</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2397,6 +2582,11 @@
           <t>g__F0040</t>
         </is>
       </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>g__F0040</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2448,6 +2638,11 @@
           <t>g__F0040</t>
         </is>
       </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>g__F0040</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2495,6 +2690,11 @@
         <v>0.9827872692468703</v>
       </c>
       <c r="O40" t="inlineStr">
+        <is>
+          <t>g__Prevotellamassilia</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>g__Prevotellamassilia</t>
         </is>

--- a/outputs-HGR-r202/f__Bacteroidaceae.xlsx
+++ b/outputs-HGR-r202/f__Bacteroidaceae.xlsx
@@ -960,7 +960,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>g__Bacteroides</t>
+          <t>g__Bacteroides(reject)</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>g__Prevotellamassilia</t>
+          <t>g__Prevotellamassilia(reject)</t>
         </is>
       </c>
     </row>
